--- a/project/uploads/93/split_output/26.xlsx
+++ b/project/uploads/93/split_output/26.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FBEE784-8281-4E8D-98F2-C296C2D8CCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF0DB2F-B133-48A9-9F01-FCD0F40D5485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A2104FB9-1CEE-4AA9-A3FE-2CCC58C41AB2}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" xr2:uid="{7171FFEA-9D5D-4A8E-A5F9-40C4FB2AF7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="26" sheetId="1" r:id="rId1"/>
@@ -1661,7 +1661,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{D09021FF-D3FD-453B-ADE9-362889DFFCD7}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{08D53B03-D434-4E3F-96A1-87DB4683D650}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1697,7 +1697,7 @@
         <xdr:cNvPr id="2" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D1FAD57-FABA-49E8-A0F7-B76D9C465C89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD68702C-A76B-43C7-8339-A4C3CF85C4D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1714,8 +1714,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="287655" y="104775"/>
-          <a:ext cx="4848225" cy="6200775"/>
+          <a:off x="282575" y="104775"/>
+          <a:ext cx="4772025" cy="6315075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,7 +1749,7 @@
         <xdr:cNvPr id="3" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE176B4-A21D-447A-932C-089D3238A1CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED30C0D-2139-4B9F-8506-814F9EAB793A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,8 +1766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="201930" y="6530340"/>
-          <a:ext cx="4943475" cy="6486525"/>
+          <a:off x="196850" y="6661150"/>
+          <a:ext cx="4867275" cy="7019925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1801,7 +1801,7 @@
         <xdr:cNvPr id="4" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58488CA1-6E88-4703-AD68-0ECB2D04F880}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E225BFF3-6FDC-43E7-836B-B98989697C11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1818,8 +1818,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230505" y="13769340"/>
-          <a:ext cx="6532245" cy="4933950"/>
+          <a:off x="225425" y="14497050"/>
+          <a:ext cx="6435725" cy="5340350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1840,15 +1840,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:rowOff>57150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>32</xdr:col>
-          <xdr:colOff>60960</xdr:colOff>
+          <xdr:colOff>57150</xdr:colOff>
           <xdr:row>74</xdr:row>
-          <xdr:rowOff>121920</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1858,7 +1858,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E23145C-CE1D-4E06-8B1D-922B8D9B5872}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3589969-C20F-4B35-A406-86473E850C8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7488,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD0DF75-8AB0-4DEC-BE1F-E71ED1A259EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C677D48B-1B88-44AE-8B8B-0E03518FB39F}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -7498,21 +7498,21 @@
       <selection activeCell="AJ78" sqref="AJ78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.81640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="1" style="5" customWidth="1"/>
-    <col min="2" max="23" width="4.88671875" style="5" customWidth="1"/>
-    <col min="24" max="24" width="1" style="5" customWidth="1"/>
-    <col min="25" max="25" width="4.44140625" style="5" customWidth="1"/>
-    <col min="26" max="26" width="4" style="5" customWidth="1"/>
-    <col min="27" max="27" width="3.21875" style="5" customWidth="1"/>
-    <col min="28" max="28" width="3.88671875" style="5" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" style="5" customWidth="1"/>
-    <col min="30" max="30" width="4.44140625" style="5" customWidth="1"/>
-    <col min="31" max="31" width="3.5546875" style="5" customWidth="1"/>
-    <col min="32" max="32" width="3.77734375" style="5" customWidth="1"/>
-    <col min="33" max="33" width="4.33203125" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="10" style="5"/>
+    <col min="1" max="1" width="0.90625" style="5" customWidth="1"/>
+    <col min="2" max="23" width="4.7265625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="0.90625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="4.36328125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="3.90625" style="5" customWidth="1"/>
+    <col min="27" max="27" width="3.08984375" style="5" customWidth="1"/>
+    <col min="28" max="28" width="3.81640625" style="5" customWidth="1"/>
+    <col min="29" max="29" width="3.54296875" style="5" customWidth="1"/>
+    <col min="30" max="30" width="4.36328125" style="5" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" style="5" customWidth="1"/>
+    <col min="32" max="32" width="3.6328125" style="5" customWidth="1"/>
+    <col min="33" max="33" width="4.1796875" style="5" customWidth="1"/>
+    <col min="34" max="16384" width="9.81640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="16.5" customHeight="1">
@@ -8575,7 +8575,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AH1" location="目录!A1" display="返回" xr:uid="{53E3F1BA-7FF2-425D-9DBD-17B288CEB1CC}"/>
+    <hyperlink ref="AH1" location="目录!A1" display="返回" xr:uid="{AFAD42BF-C2E8-48AC-AB1A-9E9C8D879F7D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.196850393700787" right="0" top="0.196850393700787" bottom="0" header="0" footer="0"/>
@@ -8591,15 +8591,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>16</xdr:col>
-                <xdr:colOff>22860</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>32</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>32</xdr:col>
-                <xdr:colOff>60960</xdr:colOff>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>74</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
+                <xdr:rowOff>127000</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
